--- a/Code/Results/Cases/Case_4_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_175/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.1764813592165</v>
+        <v>10.06602685295606</v>
       </c>
       <c r="C2">
-        <v>7.915520268102276</v>
+        <v>5.109432809453438</v>
       </c>
       <c r="D2">
-        <v>12.17561336161581</v>
+        <v>14.92169772828122</v>
       </c>
       <c r="E2">
-        <v>13.17232023988377</v>
+        <v>16.33195972981394</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.01170269913218</v>
+        <v>32.91174236810749</v>
       </c>
       <c r="H2">
-        <v>9.278701140649884</v>
+        <v>15.388259495514</v>
       </c>
       <c r="I2">
-        <v>13.51177689956324</v>
+        <v>21.87708099513625</v>
       </c>
       <c r="J2">
-        <v>5.882770721392372</v>
+        <v>9.317497202152996</v>
       </c>
       <c r="K2">
-        <v>11.91405675944628</v>
+        <v>10.23282874145926</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.11287668861935</v>
+        <v>18.69568457314384</v>
       </c>
       <c r="O2">
-        <v>15.34479235446202</v>
+        <v>23.96746889359511</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.31817142128591</v>
+        <v>9.785404360535562</v>
       </c>
       <c r="C3">
-        <v>7.415495206354408</v>
+        <v>4.905436515945269</v>
       </c>
       <c r="D3">
-        <v>11.66293448724201</v>
+        <v>14.85612703063621</v>
       </c>
       <c r="E3">
-        <v>12.62737854714868</v>
+        <v>16.26633236098847</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.63161701407273</v>
+        <v>32.96866988064129</v>
       </c>
       <c r="H3">
-        <v>9.320430767041614</v>
+        <v>15.43241214227752</v>
       </c>
       <c r="I3">
-        <v>13.63688163127772</v>
+        <v>21.95943644551062</v>
       </c>
       <c r="J3">
-        <v>5.787939379288536</v>
+        <v>9.323620176607356</v>
       </c>
       <c r="K3">
-        <v>11.19312303031202</v>
+        <v>10.04500976814862</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.29452164744769</v>
+        <v>18.75115681069127</v>
       </c>
       <c r="O3">
-        <v>15.31563716560018</v>
+        <v>24.03537511205979</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.76012034694009</v>
+        <v>9.61047425522723</v>
       </c>
       <c r="C4">
-        <v>7.091149520728271</v>
+        <v>4.776312103355453</v>
       </c>
       <c r="D4">
-        <v>11.34380057673423</v>
+        <v>14.81905760371421</v>
       </c>
       <c r="E4">
-        <v>12.28880861317825</v>
+        <v>16.22956633925089</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.42040520669505</v>
+        <v>33.01278252662116</v>
       </c>
       <c r="H4">
-        <v>9.351538080304024</v>
+        <v>15.4617916996163</v>
       </c>
       <c r="I4">
-        <v>13.72323904873747</v>
+        <v>22.01380304982681</v>
       </c>
       <c r="J4">
-        <v>5.731945015257933</v>
+        <v>9.328757147649059</v>
       </c>
       <c r="K4">
-        <v>10.72605526467748</v>
+        <v>9.929409786853464</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.4086811536348</v>
+        <v>18.78683530315897</v>
       </c>
       <c r="O4">
-        <v>15.30985502328237</v>
+        <v>24.08171960257835</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.52488020749374</v>
+        <v>9.538637899006394</v>
       </c>
       <c r="C5">
-        <v>6.95461803811518</v>
+        <v>4.722797044463077</v>
       </c>
       <c r="D5">
-        <v>11.21285460775161</v>
+        <v>14.80476619663112</v>
       </c>
       <c r="E5">
-        <v>12.15004757490239</v>
+        <v>16.21548317490108</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.33984545391446</v>
+        <v>33.03305548491772</v>
       </c>
       <c r="H5">
-        <v>9.365548493747724</v>
+        <v>15.47433486047323</v>
       </c>
       <c r="I5">
-        <v>13.76073675629514</v>
+        <v>22.03691304031437</v>
       </c>
       <c r="J5">
-        <v>5.709701586116878</v>
+        <v>9.331197257912512</v>
       </c>
       <c r="K5">
-        <v>10.52960830247215</v>
+        <v>9.882293010168725</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.45588005898895</v>
+        <v>18.80178268929337</v>
       </c>
       <c r="O5">
-        <v>15.31044341550949</v>
+        <v>24.10177286419333</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.48534527753607</v>
+        <v>9.526679583547793</v>
       </c>
       <c r="C6">
-        <v>6.931683983476796</v>
+        <v>4.713859241059634</v>
       </c>
       <c r="D6">
-        <v>11.19106317908828</v>
+        <v>14.80244266020945</v>
       </c>
       <c r="E6">
-        <v>12.12696515493892</v>
+        <v>16.21319931280759</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.32679916238408</v>
+        <v>33.03656030398368</v>
       </c>
       <c r="H6">
-        <v>9.367954178338376</v>
+        <v>15.4764521156716</v>
       </c>
       <c r="I6">
-        <v>13.76709988802812</v>
+        <v>22.04080811477826</v>
       </c>
       <c r="J6">
-        <v>5.706043159944199</v>
+        <v>9.331623388962882</v>
       </c>
       <c r="K6">
-        <v>10.49662022549358</v>
+        <v>9.874470579985433</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.46375883383262</v>
+        <v>18.80428937479256</v>
       </c>
       <c r="O6">
-        <v>15.3107159200747</v>
+        <v>24.105173155234</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.75697954613474</v>
+        <v>9.609507526023203</v>
       </c>
       <c r="C7">
-        <v>7.089325851106626</v>
+        <v>4.775593898906147</v>
       </c>
       <c r="D7">
-        <v>11.34203794635254</v>
+        <v>14.81886155082721</v>
       </c>
       <c r="E7">
-        <v>12.28694014458972</v>
+        <v>16.22937275286847</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.41929653483513</v>
+        <v>33.01304664474727</v>
       </c>
       <c r="H7">
-        <v>9.351721687520225</v>
+        <v>15.46195855008302</v>
       </c>
       <c r="I7">
-        <v>13.72373553716541</v>
+        <v>22.01411085235263</v>
       </c>
       <c r="J7">
-        <v>5.731642688777057</v>
+        <v>9.32878865139398</v>
       </c>
       <c r="K7">
-        <v>10.72343062067328</v>
+        <v>9.928774307722152</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.40931492746035</v>
+        <v>18.78703523485687</v>
       </c>
       <c r="O7">
-        <v>15.30985117313648</v>
+        <v>24.08198532305257</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.88696409000015</v>
+        <v>9.969877094980554</v>
       </c>
       <c r="C8">
-        <v>7.746705805633895</v>
+        <v>5.039941698424089</v>
       </c>
       <c r="D8">
-        <v>11.99985501305161</v>
+        <v>14.89843426334538</v>
       </c>
       <c r="E8">
-        <v>12.98536684180708</v>
+        <v>16.3086062833461</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.87601858167919</v>
+        <v>32.92946647517102</v>
       </c>
       <c r="H8">
-        <v>9.291923367639134</v>
+        <v>15.4030122817795</v>
       </c>
       <c r="I8">
-        <v>13.55287486387191</v>
+        <v>21.90468822475396</v>
       </c>
       <c r="J8">
-        <v>5.84961787025051</v>
+        <v>9.319322769702348</v>
       </c>
       <c r="K8">
-        <v>11.67055671277149</v>
+        <v>10.16816284403659</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.17497269457208</v>
+        <v>18.71447622799216</v>
       </c>
       <c r="O8">
-        <v>15.33216315834498</v>
+        <v>23.98991688348269</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.85781426845163</v>
+        <v>10.6512498792453</v>
       </c>
       <c r="C9">
-        <v>8.89867384142932</v>
+        <v>5.524667719817321</v>
       </c>
       <c r="D9">
-        <v>13.24785965895438</v>
+        <v>15.07921157837997</v>
       </c>
       <c r="E9">
-        <v>14.3155012976832</v>
+        <v>16.4914189090016</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.94923969607744</v>
+        <v>32.83848351122342</v>
       </c>
       <c r="H9">
-        <v>9.220281974084644</v>
+        <v>15.30542610811688</v>
       </c>
       <c r="I9">
-        <v>13.29796365331677</v>
+        <v>21.72027965184807</v>
       </c>
       <c r="J9">
-        <v>6.098053696068158</v>
+        <v>9.311670229358558</v>
       </c>
       <c r="K9">
-        <v>13.33368407399869</v>
+        <v>10.63277759677632</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.73548030038028</v>
+        <v>18.58497452514754</v>
       </c>
       <c r="O9">
-        <v>15.47654296298692</v>
+        <v>23.84633912240713</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.15846377501956</v>
+        <v>11.13095006659247</v>
       </c>
       <c r="C10">
-        <v>9.662242522850779</v>
+        <v>5.856892643377853</v>
       </c>
       <c r="D10">
-        <v>14.13078674448527</v>
+        <v>15.22625688237415</v>
       </c>
       <c r="E10">
-        <v>15.2597293423833</v>
+        <v>16.641624626044</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.8471328281148</v>
+        <v>32.81636621987104</v>
       </c>
       <c r="H10">
-        <v>9.19844404611052</v>
+        <v>15.24470519521818</v>
       </c>
       <c r="I10">
-        <v>13.16600779475011</v>
+        <v>21.60321016809769</v>
       </c>
       <c r="J10">
-        <v>6.290136240746584</v>
+        <v>9.31266928418369</v>
       </c>
       <c r="K10">
-        <v>14.43727827623343</v>
+        <v>10.96781188586938</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.42362787072609</v>
+        <v>18.4975473203264</v>
       </c>
       <c r="O10">
-        <v>15.64984668105909</v>
+        <v>23.7634861021739</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.71867413816911</v>
+        <v>11.34362987781271</v>
       </c>
       <c r="C11">
-        <v>9.991892844032948</v>
+        <v>6.002272324003365</v>
       </c>
       <c r="D11">
-        <v>14.52374042981445</v>
+        <v>15.29604068724791</v>
       </c>
       <c r="E11">
-        <v>15.68068400344075</v>
+        <v>16.71321018233084</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.27930230536676</v>
+        <v>32.81605361501067</v>
       </c>
       <c r="H11">
-        <v>9.195868134771414</v>
+        <v>15.21946447663606</v>
       </c>
       <c r="I11">
-        <v>13.11950122609838</v>
+        <v>21.5539564976975</v>
       </c>
       <c r="J11">
-        <v>6.379413911912951</v>
+        <v>9.314553422553832</v>
       </c>
       <c r="K11">
-        <v>14.91382098363114</v>
+        <v>11.11818544211532</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.28388222631473</v>
+        <v>18.45943381449056</v>
       </c>
       <c r="O11">
-        <v>15.74447045421989</v>
+        <v>23.73072737725036</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.92633054832068</v>
+        <v>11.4232956730691</v>
       </c>
       <c r="C12">
-        <v>10.11420216417209</v>
+        <v>6.056458059529687</v>
       </c>
       <c r="D12">
-        <v>14.67120700648032</v>
+        <v>15.32286375353901</v>
       </c>
       <c r="E12">
-        <v>15.838764204264</v>
+        <v>16.74076794012682</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.44634240993715</v>
+        <v>32.81733816542675</v>
       </c>
       <c r="H12">
-        <v>9.196008085386858</v>
+        <v>15.21024892414096</v>
       </c>
       <c r="I12">
-        <v>13.10396735262319</v>
+        <v>21.53588144795956</v>
       </c>
       <c r="J12">
-        <v>6.413479501476161</v>
+        <v>9.315471609017031</v>
       </c>
       <c r="K12">
-        <v>15.09063167266559</v>
+        <v>11.17478297907072</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.23124524055045</v>
+        <v>18.44523836853336</v>
       </c>
       <c r="O12">
-        <v>15.78266359876079</v>
+        <v>23.71903298470383</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.88180673225601</v>
+        <v>11.40617809495041</v>
       </c>
       <c r="C13">
-        <v>10.08797243360893</v>
+        <v>6.044827292689463</v>
       </c>
       <c r="D13">
-        <v>14.63950805485053</v>
+        <v>15.31706955035028</v>
       </c>
       <c r="E13">
-        <v>15.80477904651661</v>
+        <v>16.73481317719374</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.4102171232683</v>
+        <v>32.8169991143445</v>
       </c>
       <c r="H13">
-        <v>9.195927409163597</v>
+        <v>15.21221842132752</v>
       </c>
       <c r="I13">
-        <v>13.10721828892183</v>
+        <v>21.53974859189479</v>
       </c>
       <c r="J13">
-        <v>6.406131614442032</v>
+        <v>9.315264771920523</v>
       </c>
       <c r="K13">
-        <v>15.05271410578715</v>
+        <v>11.16260987340334</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.24256940717961</v>
+        <v>18.44828507382694</v>
       </c>
       <c r="O13">
-        <v>15.77433160165754</v>
+        <v>23.72151995403025</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.73584776017909</v>
+        <v>11.35020190001818</v>
       </c>
       <c r="C14">
-        <v>10.00200570855498</v>
+        <v>6.006747786567089</v>
       </c>
       <c r="D14">
-        <v>14.53589980596366</v>
+        <v>15.29823957956263</v>
       </c>
       <c r="E14">
-        <v>15.69371639384485</v>
+        <v>16.71546846782865</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.29297706767291</v>
+        <v>32.81613117701595</v>
       </c>
       <c r="H14">
-        <v>9.195856961052105</v>
+        <v>15.21869944163893</v>
       </c>
       <c r="I14">
-        <v>13.11818083336758</v>
+        <v>21.55245789907177</v>
       </c>
       <c r="J14">
-        <v>6.382211417630416</v>
+        <v>9.314624865120196</v>
       </c>
       <c r="K14">
-        <v>14.92844024076017</v>
+        <v>11.12284897646481</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.27954624015029</v>
+        <v>18.45826119647499</v>
       </c>
       <c r="O14">
-        <v>15.74756479880215</v>
+        <v>23.72975102256089</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.64586110357466</v>
+        <v>11.31579927286362</v>
       </c>
       <c r="C15">
-        <v>9.949020894987562</v>
+        <v>5.983309086663457</v>
       </c>
       <c r="D15">
-        <v>14.47226047605925</v>
+        <v>15.28675687986459</v>
       </c>
       <c r="E15">
-        <v>15.62551220186112</v>
+        <v>16.70367730103238</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.22160444536047</v>
+        <v>32.81578225474438</v>
       </c>
       <c r="H15">
-        <v>9.195960792170697</v>
+        <v>15.22271386791612</v>
       </c>
       <c r="I15">
-        <v>13.12517026094741</v>
+        <v>21.56031778463665</v>
       </c>
       <c r="J15">
-        <v>6.367592791887305</v>
+        <v>9.314259534458841</v>
       </c>
       <c r="K15">
-        <v>14.85184479909957</v>
+        <v>11.09844773960898</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.30223159953197</v>
+        <v>18.46440273380902</v>
       </c>
       <c r="O15">
-        <v>15.73147948605124</v>
+        <v>23.73488537567559</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.12122307493857</v>
+        <v>11.11693291854563</v>
       </c>
       <c r="C16">
-        <v>9.640344833843626</v>
+        <v>5.847272514359705</v>
       </c>
       <c r="D16">
-        <v>14.10492354417369</v>
+        <v>15.22175298470351</v>
       </c>
       <c r="E16">
-        <v>15.23203795630425</v>
+        <v>16.63701031229346</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.81936487686186</v>
+        <v>32.8165829367459</v>
       </c>
       <c r="H16">
-        <v>9.198765317634363</v>
+        <v>15.24640266661995</v>
       </c>
       <c r="I16">
-        <v>13.16933040378296</v>
+        <v>21.6065096053142</v>
       </c>
       <c r="J16">
-        <v>6.284338635867572</v>
+        <v>9.312574846846996</v>
       </c>
       <c r="K16">
-        <v>14.40562374887941</v>
+        <v>10.95793906987756</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.43280126228172</v>
+        <v>18.50007139250152</v>
       </c>
       <c r="O16">
-        <v>15.64398834365823</v>
+        <v>23.76572632626455</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.79134498760971</v>
+        <v>10.99346069674481</v>
       </c>
       <c r="C17">
-        <v>9.446464063498022</v>
+        <v>5.762315621594834</v>
       </c>
       <c r="D17">
-        <v>13.87728004144621</v>
+        <v>15.18260306578513</v>
       </c>
       <c r="E17">
-        <v>14.98838457329022</v>
+        <v>16.59693345167268</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.5786631417432</v>
+        <v>32.81957213907314</v>
       </c>
       <c r="H17">
-        <v>9.202410713511389</v>
+        <v>15.26154501687323</v>
       </c>
       <c r="I17">
-        <v>13.19997686551811</v>
+        <v>21.63587231082714</v>
       </c>
       <c r="J17">
-        <v>6.233740189066148</v>
+        <v>9.311906922062184</v>
       </c>
       <c r="K17">
-        <v>14.12536566147788</v>
+        <v>10.87118166230462</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.5134279999009</v>
+        <v>18.52237675521925</v>
       </c>
       <c r="O17">
-        <v>15.5944248482514</v>
+        <v>23.78591042750286</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.59864390611617</v>
+        <v>10.92192547867525</v>
       </c>
       <c r="C18">
-        <v>9.33328129500536</v>
+        <v>5.712911310676579</v>
       </c>
       <c r="D18">
-        <v>13.74553108523323</v>
+        <v>15.16035844319666</v>
       </c>
       <c r="E18">
-        <v>14.84743825414963</v>
+        <v>16.57418994624345</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.44245179974783</v>
+        <v>32.82220904894746</v>
       </c>
       <c r="H18">
-        <v>9.205196523361483</v>
+        <v>15.27047865156752</v>
       </c>
       <c r="I18">
-        <v>13.21886821418512</v>
+        <v>21.65313758492702</v>
       </c>
       <c r="J18">
-        <v>6.204816822256363</v>
+        <v>9.31165737494848</v>
       </c>
       <c r="K18">
-        <v>13.96176806348304</v>
+        <v>10.82109252342106</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.56000312138205</v>
+        <v>18.53536228975367</v>
       </c>
       <c r="O18">
-        <v>15.56739800218587</v>
+        <v>23.79798388752479</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.53288836261565</v>
+        <v>10.89761844745666</v>
       </c>
       <c r="C19">
-        <v>9.294672468255705</v>
+        <v>5.696092520059337</v>
       </c>
       <c r="D19">
-        <v>13.70078620995128</v>
+        <v>15.15287429855959</v>
       </c>
       <c r="E19">
-        <v>14.79958142974565</v>
+        <v>16.56654277115906</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.39671725923789</v>
+        <v>32.82325940772255</v>
       </c>
       <c r="H19">
-        <v>9.206256379083534</v>
+        <v>15.2735419225426</v>
       </c>
       <c r="I19">
-        <v>13.22547769688782</v>
+        <v>21.65904797159326</v>
       </c>
       <c r="J19">
-        <v>6.195055171641312</v>
+        <v>9.311596029840508</v>
       </c>
       <c r="K19">
-        <v>13.90596392498969</v>
+        <v>10.80410247614944</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.57580781402338</v>
+        <v>18.5397858075248</v>
       </c>
       <c r="O19">
-        <v>15.55849865955445</v>
+        <v>23.80215141585596</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.82676753904778</v>
+        <v>11.00665862657133</v>
       </c>
       <c r="C20">
-        <v>9.467275441405805</v>
+        <v>5.77141555229167</v>
       </c>
       <c r="D20">
-        <v>13.90159805613384</v>
+        <v>15.18674247945163</v>
       </c>
       <c r="E20">
-        <v>15.01440576847756</v>
+        <v>16.60116799242546</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.60405519760309</v>
+        <v>32.81915895364497</v>
       </c>
       <c r="H20">
-        <v>9.201950928137368</v>
+        <v>15.25990988785463</v>
       </c>
       <c r="I20">
-        <v>13.19658270214228</v>
+        <v>21.6327076160078</v>
       </c>
       <c r="J20">
-        <v>6.239108011776544</v>
+        <v>9.311964096616194</v>
       </c>
       <c r="K20">
-        <v>14.15544793795011</v>
+        <v>10.88043704610152</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.5048245304671</v>
+        <v>18.5199861651976</v>
       </c>
       <c r="O20">
-        <v>15.5995470411463</v>
+        <v>23.78371375183509</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.77884077910086</v>
+        <v>11.36666767846167</v>
       </c>
       <c r="C21">
-        <v>10.02732446892387</v>
+        <v>6.01795646034008</v>
       </c>
       <c r="D21">
-        <v>14.56636892586409</v>
+        <v>15.3037597620242</v>
       </c>
       <c r="E21">
-        <v>15.726374816988</v>
+        <v>16.72113841915817</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.3273216044796</v>
+        <v>32.81634803346488</v>
       </c>
       <c r="H21">
-        <v>9.195846918030579</v>
+        <v>15.21678651114702</v>
       </c>
       <c r="I21">
-        <v>13.11490340638022</v>
+        <v>21.54870922195528</v>
       </c>
       <c r="J21">
-        <v>6.389230468387401</v>
+        <v>9.314807273147386</v>
       </c>
       <c r="K21">
-        <v>14.96504124974986</v>
+        <v>11.13453750498122</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.26867779195647</v>
+        <v>18.45532453512981</v>
       </c>
       <c r="O21">
-        <v>15.7553620707527</v>
+        <v>23.72731406093087</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.37496551984246</v>
+        <v>11.59684519135764</v>
       </c>
       <c r="C22">
-        <v>10.37866095065145</v>
+        <v>6.174020753763321</v>
       </c>
       <c r="D22">
-        <v>14.99301816082176</v>
+        <v>15.38254496110318</v>
       </c>
       <c r="E22">
-        <v>16.18392873959457</v>
+        <v>16.80215910248856</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.81974587277798</v>
+        <v>32.82268792857347</v>
       </c>
       <c r="H22">
-        <v>9.198386583205172</v>
+        <v>15.1905996325901</v>
       </c>
       <c r="I22">
-        <v>13.07369435274025</v>
+        <v>21.49717059661572</v>
       </c>
       <c r="J22">
-        <v>6.488842394805934</v>
+        <v>9.317858147985419</v>
       </c>
       <c r="K22">
-        <v>15.47291997520586</v>
+        <v>11.29856952732426</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.11597248114246</v>
+        <v>18.41444717857633</v>
       </c>
       <c r="O22">
-        <v>15.87099831514791</v>
+        <v>23.69459626096873</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.05917741869814</v>
+        <v>11.47448557480391</v>
       </c>
       <c r="C23">
-        <v>10.19248157654003</v>
+        <v>6.091201289009415</v>
       </c>
       <c r="D23">
-        <v>14.76604640433562</v>
+        <v>15.34029093481002</v>
       </c>
       <c r="E23">
-        <v>15.94045895703369</v>
+        <v>16.7586840132736</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.55513347644171</v>
+        <v>32.81855596155735</v>
       </c>
       <c r="H23">
-        <v>9.196414402668541</v>
+        <v>15.20439333001415</v>
       </c>
       <c r="I23">
-        <v>13.09452912423293</v>
+        <v>21.52437010116443</v>
       </c>
       <c r="J23">
-        <v>6.435545158933831</v>
+        <v>9.31612102317475</v>
       </c>
       <c r="K23">
-        <v>15.20379101572543</v>
+        <v>11.21122571992786</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.19733287909454</v>
+        <v>18.43613801293704</v>
       </c>
       <c r="O23">
-        <v>15.80798915372141</v>
+        <v>23.71167886023843</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.8107625059896</v>
+        <v>11.00069354794777</v>
       </c>
       <c r="C24">
-        <v>9.457871970775972</v>
+        <v>5.767303219402541</v>
       </c>
       <c r="D24">
-        <v>13.89060659624137</v>
+        <v>15.18487022934752</v>
       </c>
       <c r="E24">
-        <v>15.00264427860175</v>
+        <v>16.59925262938201</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.59256868433936</v>
+        <v>32.81934289417692</v>
       </c>
       <c r="H24">
-        <v>9.202156652156633</v>
+        <v>15.26064841917718</v>
       </c>
       <c r="I24">
-        <v>13.19811325049715</v>
+        <v>21.63413717762664</v>
       </c>
       <c r="J24">
-        <v>6.236680699825177</v>
+        <v>9.311937829133104</v>
       </c>
       <c r="K24">
-        <v>14.14185544653954</v>
+        <v>10.87625334069832</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.50871346662587</v>
+        <v>18.52106644659625</v>
       </c>
       <c r="O24">
-        <v>15.59722673260086</v>
+        <v>23.78470540700488</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.35068116694487</v>
+        <v>10.47022424396229</v>
       </c>
       <c r="C25">
-        <v>8.601649091101487</v>
+        <v>5.397518943312669</v>
       </c>
       <c r="D25">
-        <v>12.91568645664086</v>
+        <v>15.02774251200988</v>
       </c>
       <c r="E25">
-        <v>13.96090463994139</v>
+        <v>16.43910790410945</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.63971098918906</v>
+        <v>32.8552578474067</v>
       </c>
       <c r="H25">
-        <v>9.234476280736391</v>
+        <v>15.32989814673271</v>
       </c>
       <c r="I25">
-        <v>13.35769799529501</v>
+        <v>21.76693489017619</v>
       </c>
       <c r="J25">
-        <v>6.029103942425175</v>
+        <v>9.312575144088768</v>
       </c>
       <c r="K25">
-        <v>12.9045771265903</v>
+        <v>10.50796053440034</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.85234666618351</v>
+        <v>18.61864732662093</v>
       </c>
       <c r="O25">
-        <v>15.42609114785075</v>
+        <v>23.88121257723607</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_175/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.06602685295606</v>
+        <v>13.17648135921657</v>
       </c>
       <c r="C2">
-        <v>5.109432809453438</v>
+        <v>7.91552026810223</v>
       </c>
       <c r="D2">
-        <v>14.92169772828122</v>
+        <v>12.17561336161588</v>
       </c>
       <c r="E2">
-        <v>16.33195972981394</v>
+        <v>13.17232023988382</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>32.91174236810749</v>
+        <v>24.01170269913202</v>
       </c>
       <c r="H2">
-        <v>15.388259495514</v>
+        <v>9.278701140649876</v>
       </c>
       <c r="I2">
-        <v>21.87708099513625</v>
+        <v>13.51177689956312</v>
       </c>
       <c r="J2">
-        <v>9.317497202152996</v>
+        <v>5.88277072139241</v>
       </c>
       <c r="K2">
-        <v>10.23282874145926</v>
+        <v>11.9140567594463</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.69568457314384</v>
+        <v>12.11287668861928</v>
       </c>
       <c r="O2">
-        <v>23.96746889359511</v>
+        <v>15.34479235446193</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.785404360535562</v>
+        <v>12.31817142128592</v>
       </c>
       <c r="C3">
-        <v>4.905436515945269</v>
+        <v>7.415495206354494</v>
       </c>
       <c r="D3">
-        <v>14.85612703063621</v>
+        <v>11.66293448724206</v>
       </c>
       <c r="E3">
-        <v>16.26633236098847</v>
+        <v>12.62737854714871</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>32.96866988064129</v>
+        <v>23.63161701407268</v>
       </c>
       <c r="H3">
-        <v>15.43241214227752</v>
+        <v>9.320430767041623</v>
       </c>
       <c r="I3">
-        <v>21.95943644551062</v>
+        <v>13.63688163127773</v>
       </c>
       <c r="J3">
-        <v>9.323620176607356</v>
+        <v>5.787939379288534</v>
       </c>
       <c r="K3">
-        <v>10.04500976814862</v>
+        <v>11.19312303031206</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.75115681069127</v>
+        <v>12.29452164744769</v>
       </c>
       <c r="O3">
-        <v>24.03537511205979</v>
+        <v>15.31563716560018</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.61047425522723</v>
+        <v>11.76012034694013</v>
       </c>
       <c r="C4">
-        <v>4.776312103355453</v>
+        <v>7.091149520728364</v>
       </c>
       <c r="D4">
-        <v>14.81905760371421</v>
+        <v>11.34380057673407</v>
       </c>
       <c r="E4">
-        <v>16.22956633925089</v>
+        <v>12.28880861317818</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.01278252662116</v>
+        <v>23.42040520669482</v>
       </c>
       <c r="H4">
-        <v>15.4617916996163</v>
+        <v>9.351538080304024</v>
       </c>
       <c r="I4">
-        <v>22.01380304982681</v>
+        <v>13.72323904873739</v>
       </c>
       <c r="J4">
-        <v>9.328757147649059</v>
+        <v>5.731945015257933</v>
       </c>
       <c r="K4">
-        <v>9.929409786853464</v>
+        <v>10.72605526467754</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.78683530315897</v>
+        <v>12.40868115363477</v>
       </c>
       <c r="O4">
-        <v>24.08171960257835</v>
+        <v>15.30985502328224</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.538637899006394</v>
+        <v>11.52488020749382</v>
       </c>
       <c r="C5">
-        <v>4.722797044463077</v>
+        <v>6.954618038115377</v>
       </c>
       <c r="D5">
-        <v>14.80476619663112</v>
+        <v>11.21285460775169</v>
       </c>
       <c r="E5">
-        <v>16.21548317490108</v>
+        <v>12.15004757490239</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>33.03305548491772</v>
+        <v>23.33984545391406</v>
       </c>
       <c r="H5">
-        <v>15.47433486047323</v>
+        <v>9.365548493747548</v>
       </c>
       <c r="I5">
-        <v>22.03691304031437</v>
+        <v>13.76073675629496</v>
       </c>
       <c r="J5">
-        <v>9.331197257912512</v>
+        <v>5.70970158611685</v>
       </c>
       <c r="K5">
-        <v>9.882293010168725</v>
+        <v>10.52960830247225</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.80178268929337</v>
+        <v>12.45588005898888</v>
       </c>
       <c r="O5">
-        <v>24.10177286419333</v>
+        <v>15.31044341550921</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.526679583547793</v>
+        <v>11.48534527753607</v>
       </c>
       <c r="C6">
-        <v>4.713859241059634</v>
+        <v>6.93168398347678</v>
       </c>
       <c r="D6">
-        <v>14.80244266020945</v>
+        <v>11.19106317908837</v>
       </c>
       <c r="E6">
-        <v>16.21319931280759</v>
+        <v>12.12696515493904</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>33.03656030398368</v>
+        <v>23.32679916238394</v>
       </c>
       <c r="H6">
-        <v>15.4764521156716</v>
+        <v>9.367954178338369</v>
       </c>
       <c r="I6">
-        <v>22.04080811477826</v>
+        <v>13.76709988802802</v>
       </c>
       <c r="J6">
-        <v>9.331623388962882</v>
+        <v>5.706043159944243</v>
       </c>
       <c r="K6">
-        <v>9.874470579985433</v>
+        <v>10.4966202254936</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.80428937479256</v>
+        <v>12.46375883383259</v>
       </c>
       <c r="O6">
-        <v>24.105173155234</v>
+        <v>15.31071592007464</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.609507526023203</v>
+        <v>11.75697954613484</v>
       </c>
       <c r="C7">
-        <v>4.775593898906147</v>
+        <v>7.089325851106541</v>
       </c>
       <c r="D7">
-        <v>14.81886155082721</v>
+        <v>11.3420379463525</v>
       </c>
       <c r="E7">
-        <v>16.22937275286847</v>
+        <v>12.28694014458975</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.01304664474727</v>
+        <v>23.41929653483527</v>
       </c>
       <c r="H7">
-        <v>15.46195855008302</v>
+        <v>9.351721687520232</v>
       </c>
       <c r="I7">
-        <v>22.01411085235263</v>
+        <v>13.72373553716542</v>
       </c>
       <c r="J7">
-        <v>9.32878865139398</v>
+        <v>5.731642688777136</v>
       </c>
       <c r="K7">
-        <v>9.928774307722152</v>
+        <v>10.7234306206733</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.78703523485687</v>
+        <v>12.40931492746041</v>
       </c>
       <c r="O7">
-        <v>24.08198532305257</v>
+        <v>15.30985117313655</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.969877094980554</v>
+        <v>12.88696409000019</v>
       </c>
       <c r="C8">
-        <v>5.039941698424089</v>
+        <v>7.746705805633813</v>
       </c>
       <c r="D8">
-        <v>14.89843426334538</v>
+        <v>11.99985501305158</v>
       </c>
       <c r="E8">
-        <v>16.3086062833461</v>
+        <v>12.98536684180712</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>32.92946647517102</v>
+        <v>23.87601858167912</v>
       </c>
       <c r="H8">
-        <v>15.4030122817795</v>
+        <v>9.291923367639134</v>
       </c>
       <c r="I8">
-        <v>21.90468822475396</v>
+        <v>13.55287486387184</v>
       </c>
       <c r="J8">
-        <v>9.319322769702348</v>
+        <v>5.849617870250564</v>
       </c>
       <c r="K8">
-        <v>10.16816284403659</v>
+        <v>11.67055671277152</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.71447622799216</v>
+        <v>12.17497269457204</v>
       </c>
       <c r="O8">
-        <v>23.98991688348269</v>
+        <v>15.33216315834492</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.6512498792453</v>
+        <v>14.85781426845168</v>
       </c>
       <c r="C9">
-        <v>5.524667719817321</v>
+        <v>8.898673841429156</v>
       </c>
       <c r="D9">
-        <v>15.07921157837997</v>
+        <v>13.24785965895441</v>
       </c>
       <c r="E9">
-        <v>16.4914189090016</v>
+        <v>14.31550129768325</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>32.83848351122342</v>
+        <v>24.94923969607762</v>
       </c>
       <c r="H9">
-        <v>15.30542610811688</v>
+        <v>9.220281974084713</v>
       </c>
       <c r="I9">
-        <v>21.72027965184807</v>
+        <v>13.29796365331683</v>
       </c>
       <c r="J9">
-        <v>9.311670229358558</v>
+        <v>6.098053696068185</v>
       </c>
       <c r="K9">
-        <v>10.63277759677632</v>
+        <v>13.33368407399865</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.58497452514754</v>
+        <v>11.73548030038038</v>
       </c>
       <c r="O9">
-        <v>23.84633912240713</v>
+        <v>15.47654296298706</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.13095006659247</v>
+        <v>16.15846377501956</v>
       </c>
       <c r="C10">
-        <v>5.856892643377853</v>
+        <v>9.662242522850526</v>
       </c>
       <c r="D10">
-        <v>15.22625688237415</v>
+        <v>14.13078674448526</v>
       </c>
       <c r="E10">
-        <v>16.641624626044</v>
+        <v>15.25972934238331</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>32.81636621987104</v>
+        <v>25.84713282811477</v>
       </c>
       <c r="H10">
-        <v>15.24470519521818</v>
+        <v>9.198444046110508</v>
       </c>
       <c r="I10">
-        <v>21.60321016809769</v>
+        <v>13.16600779475007</v>
       </c>
       <c r="J10">
-        <v>9.31266928418369</v>
+        <v>6.290136240746596</v>
       </c>
       <c r="K10">
-        <v>10.96781188586938</v>
+        <v>14.43727827623337</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.4975473203264</v>
+        <v>11.42362787072606</v>
       </c>
       <c r="O10">
-        <v>23.7634861021739</v>
+        <v>15.64984668105908</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.34362987781271</v>
+        <v>16.71867413816913</v>
       </c>
       <c r="C11">
-        <v>6.002272324003365</v>
+        <v>9.991892844033035</v>
       </c>
       <c r="D11">
-        <v>15.29604068724791</v>
+        <v>14.52374042981447</v>
       </c>
       <c r="E11">
-        <v>16.71321018233084</v>
+        <v>15.68068400344076</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>32.81605361501067</v>
+        <v>26.27930230536677</v>
       </c>
       <c r="H11">
-        <v>15.21946447663606</v>
+        <v>9.195868134771375</v>
       </c>
       <c r="I11">
-        <v>21.5539564976975</v>
+        <v>13.1195012260984</v>
       </c>
       <c r="J11">
-        <v>9.314553422553832</v>
+        <v>6.379413911912953</v>
       </c>
       <c r="K11">
-        <v>11.11818544211532</v>
+        <v>14.91382098363117</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.45943381449056</v>
+        <v>11.28388222631473</v>
       </c>
       <c r="O11">
-        <v>23.73072737725036</v>
+        <v>15.74447045421986</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.4232956730691</v>
+        <v>16.92633054832072</v>
       </c>
       <c r="C12">
-        <v>6.056458059529687</v>
+        <v>10.11420216417217</v>
       </c>
       <c r="D12">
-        <v>15.32286375353901</v>
+        <v>14.67120700648034</v>
       </c>
       <c r="E12">
-        <v>16.74076794012682</v>
+        <v>15.83876420426398</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>32.81733816542675</v>
+        <v>26.44634240993718</v>
       </c>
       <c r="H12">
-        <v>15.21024892414096</v>
+        <v>9.196008085386868</v>
       </c>
       <c r="I12">
-        <v>21.53588144795956</v>
+        <v>13.10396735262321</v>
       </c>
       <c r="J12">
-        <v>9.315471609017031</v>
+        <v>6.413479501476142</v>
       </c>
       <c r="K12">
-        <v>11.17478297907072</v>
+        <v>15.09063167266564</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.44523836853336</v>
+        <v>11.23124524055048</v>
       </c>
       <c r="O12">
-        <v>23.71903298470383</v>
+        <v>15.78266359876078</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.40617809495041</v>
+        <v>16.88180673225607</v>
       </c>
       <c r="C13">
-        <v>6.044827292689463</v>
+        <v>10.0879724336088</v>
       </c>
       <c r="D13">
-        <v>15.31706955035028</v>
+        <v>14.63950805485056</v>
       </c>
       <c r="E13">
-        <v>16.73481317719374</v>
+        <v>15.8047790465166</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>32.8169991143445</v>
+        <v>26.4102171232682</v>
       </c>
       <c r="H13">
-        <v>15.21221842132752</v>
+        <v>9.195927409163545</v>
       </c>
       <c r="I13">
-        <v>21.53974859189479</v>
+        <v>13.10721828892169</v>
       </c>
       <c r="J13">
-        <v>9.315264771920523</v>
+        <v>6.406131614442047</v>
       </c>
       <c r="K13">
-        <v>11.16260987340334</v>
+        <v>15.05271410578718</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.44828507382694</v>
+        <v>11.24256940717954</v>
       </c>
       <c r="O13">
-        <v>23.72151995403025</v>
+        <v>15.77433160165744</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.35020190001818</v>
+        <v>16.73584776017915</v>
       </c>
       <c r="C14">
-        <v>6.006747786567089</v>
+        <v>10.002005708555</v>
       </c>
       <c r="D14">
-        <v>15.29823957956263</v>
+        <v>14.5358998059637</v>
       </c>
       <c r="E14">
-        <v>16.71546846782865</v>
+        <v>15.69371639384489</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>32.81613117701595</v>
+        <v>26.29297706767275</v>
       </c>
       <c r="H14">
-        <v>15.21869944163893</v>
+        <v>9.19585696105197</v>
       </c>
       <c r="I14">
-        <v>21.55245789907177</v>
+        <v>13.1181808333674</v>
       </c>
       <c r="J14">
-        <v>9.314624865120196</v>
+        <v>6.382211417630439</v>
       </c>
       <c r="K14">
-        <v>11.12284897646481</v>
+        <v>14.92844024076025</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.45826119647499</v>
+        <v>11.27954624015019</v>
       </c>
       <c r="O14">
-        <v>23.72975102256089</v>
+        <v>15.74756479880198</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.31579927286362</v>
+        <v>16.64586110357468</v>
       </c>
       <c r="C15">
-        <v>5.983309086663457</v>
+        <v>9.949020894987678</v>
       </c>
       <c r="D15">
-        <v>15.28675687986459</v>
+        <v>14.47226047605922</v>
       </c>
       <c r="E15">
-        <v>16.70367730103238</v>
+        <v>15.62551220186112</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>32.81578225474438</v>
+        <v>26.22160444536052</v>
       </c>
       <c r="H15">
-        <v>15.22271386791612</v>
+        <v>9.195960792170712</v>
       </c>
       <c r="I15">
-        <v>21.56031778463665</v>
+        <v>13.12517026094751</v>
       </c>
       <c r="J15">
-        <v>9.314259534458841</v>
+        <v>6.367592791887325</v>
       </c>
       <c r="K15">
-        <v>11.09844773960898</v>
+        <v>14.85184479909963</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.46440273380902</v>
+        <v>11.30223159953204</v>
       </c>
       <c r="O15">
-        <v>23.73488537567559</v>
+        <v>15.73147948605128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.11693291854563</v>
+        <v>16.12122307493869</v>
       </c>
       <c r="C16">
-        <v>5.847272514359705</v>
+        <v>9.64034483384353</v>
       </c>
       <c r="D16">
-        <v>15.22175298470351</v>
+        <v>14.10492354417367</v>
       </c>
       <c r="E16">
-        <v>16.63701031229346</v>
+        <v>15.23203795630423</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>32.8165829367459</v>
+        <v>25.81936487686187</v>
       </c>
       <c r="H16">
-        <v>15.24640266661995</v>
+        <v>9.19876531763428</v>
       </c>
       <c r="I16">
-        <v>21.6065096053142</v>
+        <v>13.16933040378281</v>
       </c>
       <c r="J16">
-        <v>9.312574846846996</v>
+        <v>6.284338635867567</v>
       </c>
       <c r="K16">
-        <v>10.95793906987756</v>
+        <v>14.40562374887945</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.50007139250152</v>
+        <v>11.43280126228165</v>
       </c>
       <c r="O16">
-        <v>23.76572632626455</v>
+        <v>15.64398834365814</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.99346069674481</v>
+        <v>15.79134498760972</v>
       </c>
       <c r="C17">
-        <v>5.762315621594834</v>
+        <v>9.446464063497992</v>
       </c>
       <c r="D17">
-        <v>15.18260306578513</v>
+        <v>13.87728004144626</v>
       </c>
       <c r="E17">
-        <v>16.59693345167268</v>
+        <v>14.98838457329025</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>32.81957213907314</v>
+        <v>25.5786631417432</v>
       </c>
       <c r="H17">
-        <v>15.26154501687323</v>
+        <v>9.202410713511442</v>
       </c>
       <c r="I17">
-        <v>21.63587231082714</v>
+        <v>13.19997686551813</v>
       </c>
       <c r="J17">
-        <v>9.311906922062184</v>
+        <v>6.233740189066172</v>
       </c>
       <c r="K17">
-        <v>10.87118166230462</v>
+        <v>14.12536566147788</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.52237675521925</v>
+        <v>11.5134279999009</v>
       </c>
       <c r="O17">
-        <v>23.78591042750286</v>
+        <v>15.59442484825141</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.92192547867525</v>
+        <v>15.5986439061161</v>
       </c>
       <c r="C18">
-        <v>5.712911310676579</v>
+        <v>9.333281295005397</v>
       </c>
       <c r="D18">
-        <v>15.16035844319666</v>
+        <v>13.74553108523322</v>
       </c>
       <c r="E18">
-        <v>16.57418994624345</v>
+        <v>14.84743825414963</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>32.82220904894746</v>
+        <v>25.44245179974801</v>
       </c>
       <c r="H18">
-        <v>15.27047865156752</v>
+        <v>9.205196523361476</v>
       </c>
       <c r="I18">
-        <v>21.65313758492702</v>
+        <v>13.21886821418522</v>
       </c>
       <c r="J18">
-        <v>9.31165737494848</v>
+        <v>6.204816822256383</v>
       </c>
       <c r="K18">
-        <v>10.82109252342106</v>
+        <v>13.961768063483</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.53536228975367</v>
+        <v>11.56000312138209</v>
       </c>
       <c r="O18">
-        <v>23.79798388752479</v>
+        <v>15.56739800218597</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.89761844745666</v>
+        <v>15.53288836261559</v>
       </c>
       <c r="C19">
-        <v>5.696092520059337</v>
+        <v>9.294672468255742</v>
       </c>
       <c r="D19">
-        <v>15.15287429855959</v>
+        <v>13.70078620995131</v>
       </c>
       <c r="E19">
-        <v>16.56654277115906</v>
+        <v>14.79958142974563</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>32.82325940772255</v>
+        <v>25.39671725923811</v>
       </c>
       <c r="H19">
-        <v>15.2735419225426</v>
+        <v>9.206256379083595</v>
       </c>
       <c r="I19">
-        <v>21.65904797159326</v>
+        <v>13.22547769688798</v>
       </c>
       <c r="J19">
-        <v>9.311596029840508</v>
+        <v>6.195055171641243</v>
       </c>
       <c r="K19">
-        <v>10.80410247614944</v>
+        <v>13.90596392498964</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.5397858075248</v>
+        <v>11.57580781402345</v>
       </c>
       <c r="O19">
-        <v>23.80215141585596</v>
+        <v>15.55849865955458</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.00665862657133</v>
+        <v>15.82676753904782</v>
       </c>
       <c r="C20">
-        <v>5.77141555229167</v>
+        <v>9.467275441405725</v>
       </c>
       <c r="D20">
-        <v>15.18674247945163</v>
+        <v>13.90159805613382</v>
       </c>
       <c r="E20">
-        <v>16.60116799242546</v>
+        <v>15.01440576847754</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>32.81915895364497</v>
+        <v>25.60405519760312</v>
       </c>
       <c r="H20">
-        <v>15.25990988785463</v>
+        <v>9.201950928137318</v>
       </c>
       <c r="I20">
-        <v>21.6327076160078</v>
+        <v>13.19658270214222</v>
       </c>
       <c r="J20">
-        <v>9.311964096616194</v>
+        <v>6.239108011776508</v>
       </c>
       <c r="K20">
-        <v>10.88043704610152</v>
+        <v>14.15544793795011</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.5199861651976</v>
+        <v>11.50482453046711</v>
       </c>
       <c r="O20">
-        <v>23.78371375183509</v>
+        <v>15.59954704114628</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.36666767846167</v>
+        <v>16.7788407791009</v>
       </c>
       <c r="C21">
-        <v>6.01795646034008</v>
+        <v>10.02732446892388</v>
       </c>
       <c r="D21">
-        <v>15.3037597620242</v>
+        <v>14.56636892586415</v>
       </c>
       <c r="E21">
-        <v>16.72113841915817</v>
+        <v>15.72637481698803</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>32.81634803346488</v>
+        <v>26.32732160447972</v>
       </c>
       <c r="H21">
-        <v>15.21678651114702</v>
+        <v>9.195846918030547</v>
       </c>
       <c r="I21">
-        <v>21.54870922195528</v>
+        <v>13.11490340638022</v>
       </c>
       <c r="J21">
-        <v>9.314807273147386</v>
+        <v>6.389230468387416</v>
       </c>
       <c r="K21">
-        <v>11.13453750498122</v>
+        <v>14.9650412497499</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.45532453512981</v>
+        <v>11.26867779195647</v>
       </c>
       <c r="O21">
-        <v>23.72731406093087</v>
+        <v>15.75536207075269</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.59684519135764</v>
+        <v>17.37496551984247</v>
       </c>
       <c r="C22">
-        <v>6.174020753763321</v>
+        <v>10.37866095065142</v>
       </c>
       <c r="D22">
-        <v>15.38254496110318</v>
+        <v>14.99301816082169</v>
       </c>
       <c r="E22">
-        <v>16.80215910248856</v>
+        <v>16.18392873959455</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>32.82268792857347</v>
+        <v>26.81974587277805</v>
       </c>
       <c r="H22">
-        <v>15.1905996325901</v>
+        <v>9.198386583205217</v>
       </c>
       <c r="I22">
-        <v>21.49717059661572</v>
+        <v>13.07369435274031</v>
       </c>
       <c r="J22">
-        <v>9.317858147985419</v>
+        <v>6.488842394805965</v>
       </c>
       <c r="K22">
-        <v>11.29856952732426</v>
+        <v>15.47291997520586</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.41444717857633</v>
+        <v>11.11597248114253</v>
       </c>
       <c r="O22">
-        <v>23.69459626096873</v>
+        <v>15.87099831514798</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.47448557480391</v>
+        <v>17.05917741869818</v>
       </c>
       <c r="C23">
-        <v>6.091201289009415</v>
+        <v>10.19248157654014</v>
       </c>
       <c r="D23">
-        <v>15.34029093481002</v>
+        <v>14.76604640433559</v>
       </c>
       <c r="E23">
-        <v>16.7586840132736</v>
+        <v>15.94045895703371</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>32.81855596155735</v>
+        <v>26.55513347644181</v>
       </c>
       <c r="H23">
-        <v>15.20439333001415</v>
+        <v>9.196414402668502</v>
       </c>
       <c r="I23">
-        <v>21.52437010116443</v>
+        <v>13.09452912423295</v>
       </c>
       <c r="J23">
-        <v>9.31612102317475</v>
+        <v>6.435545158933858</v>
       </c>
       <c r="K23">
-        <v>11.21122571992786</v>
+        <v>15.20379101572549</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.43613801293704</v>
+        <v>11.19733287909454</v>
       </c>
       <c r="O23">
-        <v>23.71167886023843</v>
+        <v>15.80798915372137</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.00069354794777</v>
+        <v>15.81076250598959</v>
       </c>
       <c r="C24">
-        <v>5.767303219402541</v>
+        <v>9.457871970775845</v>
       </c>
       <c r="D24">
-        <v>15.18487022934752</v>
+        <v>13.89060659624133</v>
       </c>
       <c r="E24">
-        <v>16.59925262938201</v>
+        <v>15.00264427860172</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>32.81934289417692</v>
+        <v>25.59256868433927</v>
       </c>
       <c r="H24">
-        <v>15.26064841917718</v>
+        <v>9.202156652156626</v>
       </c>
       <c r="I24">
-        <v>21.63413717762664</v>
+        <v>13.19811325049707</v>
       </c>
       <c r="J24">
-        <v>9.311937829133104</v>
+        <v>6.236680699825149</v>
       </c>
       <c r="K24">
-        <v>10.87625334069832</v>
+        <v>14.14185544653952</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.52106644659625</v>
+        <v>11.50871346662581</v>
       </c>
       <c r="O24">
-        <v>23.78470540700488</v>
+        <v>15.59722673260081</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.47022424396229</v>
+        <v>14.35068116694491</v>
       </c>
       <c r="C25">
-        <v>5.397518943312669</v>
+        <v>8.601649091101439</v>
       </c>
       <c r="D25">
-        <v>15.02774251200988</v>
+        <v>12.91568645664088</v>
       </c>
       <c r="E25">
-        <v>16.43910790410945</v>
+        <v>13.96090463994136</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>32.8552578474067</v>
+        <v>24.63971098918883</v>
       </c>
       <c r="H25">
-        <v>15.32989814673271</v>
+        <v>9.234476280736336</v>
       </c>
       <c r="I25">
-        <v>21.76693489017619</v>
+        <v>13.35769799529493</v>
       </c>
       <c r="J25">
-        <v>9.312575144088768</v>
+        <v>6.029103942425144</v>
       </c>
       <c r="K25">
-        <v>10.50796053440034</v>
+        <v>12.90457712659032</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.61864732662093</v>
+        <v>11.85234666618347</v>
       </c>
       <c r="O25">
-        <v>23.88121257723607</v>
+        <v>15.42609114785063</v>
       </c>
     </row>
   </sheetData>
